--- a/Ganadería/17.34.xlsx
+++ b/Ganadería/17.34.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFE1D75-1BCE-4808-BE57-29F4CE29CC95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D88E78B-63CB-4D72-BA11-4DE34F60813B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{89A23BD0-3146-46A4-9135-22970208F1B7}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" xr2:uid="{89A23BD0-3146-46A4-9135-22970208F1B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla7 (2)" sheetId="19" r:id="rId1"/>
@@ -309,9 +309,6 @@
     <t>CHL</t>
   </si>
   <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
     <t>Paula Rojas</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>explotación, ganado, bovino, ganadería, comercialización, matadero, feria, corredores, minorista, exportación</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -6103,7 +6103,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6154,10 +6154,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
@@ -6166,10 +6166,10 @@
         <v>79</v>
       </c>
       <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
         <v>84</v>
-      </c>
-      <c r="G2" t="s">
-        <v>85</v>
       </c>
       <c r="H2" t="s">
         <v>80</v>
@@ -6178,16 +6178,16 @@
         <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K2" s="2">
         <v>44322</v>
       </c>
       <c r="L2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" t="s">
         <v>81</v>
-      </c>
-      <c r="M2" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
